--- a/assets/Record.xlsx
+++ b/assets/Record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">11:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:33</t>
   </si>
 </sst>
 </file>
@@ -375,7 +378,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Record.xlsx
+++ b/assets/Record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -65,6 +65,21 @@
   </si>
   <si>
     <t xml:space="preserve">11:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022MC06Sophia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:44</t>
   </si>
 </sst>
 </file>
@@ -381,6 +396,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/assets/Record.xlsx
+++ b/assets/Record.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -46,10 +46,10 @@
     <t xml:space="preserve">lname</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:20</t>
+    <t xml:space="preserve">2023-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:27</t>
   </si>
   <si>
     <t xml:space="preserve">12:47</t>
@@ -58,28 +58,58 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-07-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:33</t>
+    <t xml:space="preserve">test2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fssfsd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:45</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">2022MC06Sophia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sophia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:44</t>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
   </si>
 </sst>
 </file>
@@ -378,45 +408,114 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
